--- a/docment/テスト項目関連/win7_Internet Explorer11 おまけ.xlsx
+++ b/docment/テスト項目関連/win7_Internet Explorer11 おまけ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="456" windowWidth="22056" windowHeight="8604" tabRatio="603" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="456" windowWidth="22056" windowHeight="8604" tabRatio="603"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="25" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="68">
   <si>
     <t>確認項目</t>
     <rPh sb="0" eb="2">
@@ -791,6 +791,26 @@
     <t>四つです。すみません</t>
     <rPh sb="0" eb="1">
       <t>ヨッ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>瀬戸</t>
+    <rPh sb="0" eb="2">
+      <t>セト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>回転おまけ追記</t>
+    <rPh sb="0" eb="2">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1084,7 +1104,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1177,6 +1197,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1204,56 +1236,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1559,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1591,9 +1614,15 @@
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="55">
+        <v>42762</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1847,14 +1876,14 @@
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="21" t="s">
         <v>17</v>
       </c>
@@ -1867,16 +1896,16 @@
       <c r="K2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="51"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="19"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
@@ -1886,12 +1915,12 @@
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="13"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4"/>
@@ -1899,14 +1928,14 @@
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="27">
         <v>42758</v>
       </c>
@@ -1920,14 +1949,14 @@
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="27">
         <v>42758</v>
       </c>
@@ -1941,14 +1970,14 @@
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="27">
         <v>42758</v>
       </c>
@@ -1962,14 +1991,14 @@
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="27">
         <v>42758</v>
       </c>
@@ -1983,14 +2012,14 @@
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="27">
         <v>42758</v>
       </c>
@@ -2004,14 +2033,14 @@
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="27">
         <v>42758</v>
       </c>
@@ -2044,7 +2073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -2065,14 +2094,14 @@
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="21" t="s">
         <v>17</v>
       </c>
@@ -2088,12 +2117,12 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="19"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
@@ -2103,12 +2132,12 @@
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="13"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4"/>
@@ -2116,14 +2145,14 @@
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="27">
         <v>42758</v>
       </c>
@@ -2137,14 +2166,14 @@
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="27">
         <v>42758</v>
       </c>
@@ -2160,14 +2189,14 @@
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="27">
         <v>42758</v>
       </c>
@@ -2181,14 +2210,14 @@
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="27">
         <v>42758</v>
       </c>
@@ -2202,14 +2231,14 @@
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="27">
         <v>42758</v>
       </c>
@@ -2223,14 +2252,14 @@
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="27">
         <v>42758</v>
       </c>
@@ -2244,14 +2273,14 @@
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="27">
         <v>42758</v>
       </c>
@@ -2265,14 +2294,14 @@
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="27">
         <v>42758</v>
       </c>
@@ -2286,14 +2315,14 @@
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="27">
         <v>42758</v>
       </c>
@@ -2307,14 +2336,14 @@
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="27">
         <v>42758</v>
       </c>
@@ -2331,15 +2360,15 @@
       <c r="A16" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
       <c r="I16" s="25" t="s">
         <v>17</v>
       </c>
@@ -2355,13 +2384,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="51"/>
       <c r="I17" s="23"/>
       <c r="J17" s="3"/>
       <c r="K17" s="4"/>
@@ -2371,13 +2400,13 @@
       <c r="A18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="26"/>
       <c r="J18" s="2"/>
       <c r="K18" s="4"/>
@@ -2385,15 +2414,15 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
       <c r="I19" s="27">
         <v>42758</v>
       </c>
@@ -2407,15 +2436,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="4"/>
@@ -2423,15 +2452,15 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="4"/>
@@ -2439,16 +2468,16 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="52">
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="30">
         <v>42758</v>
       </c>
       <c r="J22" s="27" t="s">
@@ -2461,16 +2490,16 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="52">
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="30">
         <v>42758</v>
       </c>
       <c r="J23" s="27" t="s">
@@ -2483,15 +2512,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
       <c r="I24" s="27">
         <v>42758</v>
       </c>
@@ -2505,15 +2534,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
       <c r="I25" s="27">
         <v>42758</v>
       </c>
@@ -2527,15 +2556,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
       <c r="I26" s="27">
         <v>42758</v>
       </c>
@@ -2549,15 +2578,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
       <c r="I27" s="27">
         <v>42758</v>
       </c>
@@ -2571,15 +2600,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
       <c r="I28" s="27">
         <v>42758</v>
       </c>
@@ -2593,15 +2622,15 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
       <c r="I29" s="27">
         <v>42758</v>
       </c>
@@ -2615,15 +2644,15 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
       <c r="I30" s="27">
         <v>42758</v>
       </c>
@@ -2637,15 +2666,15 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
       <c r="I31" s="27">
         <v>42758</v>
       </c>
@@ -2659,16 +2688,16 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="52">
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="30">
         <v>42758</v>
       </c>
       <c r="J32" s="27" t="s">
@@ -2681,16 +2710,16 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="52">
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="30">
         <v>42758</v>
       </c>
       <c r="J33" s="27" t="s">
@@ -2703,15 +2732,15 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
       <c r="I34" s="27">
         <v>42758</v>
       </c>
@@ -2725,15 +2754,15 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
       <c r="I35" s="27">
         <v>42758</v>
       </c>
@@ -2747,15 +2776,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
       <c r="I36" s="27">
         <v>42758</v>
       </c>
@@ -2769,15 +2798,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
       <c r="I37" s="27">
         <v>42758</v>
       </c>
@@ -2791,15 +2820,15 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
       <c r="I38" s="27">
         <v>42758</v>
       </c>
@@ -2813,16 +2842,16 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="54">
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="32">
         <v>42758</v>
       </c>
       <c r="J39" s="27" t="s">
@@ -2834,23 +2863,26 @@
       <c r="L39" s="6"/>
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="I40" s="53"/>
+      <c r="I40" s="31"/>
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="I41" s="53"/>
+      <c r="I41" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="B25:H25"/>
@@ -2865,19 +2897,16 @@
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2894,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I4:I5"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2912,15 +2941,15 @@
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="25" t="s">
         <v>17</v>
       </c>
@@ -2939,13 +2968,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
       <c r="I3" s="23"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -2958,13 +2987,13 @@
       <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="26"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -2972,114 +3001,156 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="4"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="4"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="4"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="4"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="4"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="4"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3100,15 +3171,15 @@
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="25" t="s">
         <v>17</v>
       </c>
@@ -3124,13 +3195,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="23"/>
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
@@ -3140,13 +3211,13 @@
       <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="26"/>
       <c r="J15" s="2"/>
       <c r="K15" s="4"/>
@@ -3154,31 +3225,37 @@
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="4"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
       <c r="I17" s="14"/>
       <c r="J17" s="2"/>
       <c r="K17" s="4"/>
@@ -3186,15 +3263,15 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
       <c r="I18" s="14"/>
       <c r="J18" s="2"/>
       <c r="K18" s="4"/>
@@ -3202,312 +3279,402 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="4"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="4"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="4"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="4"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="4"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="4"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="4"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="4"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="4"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="4"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="4"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="4"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="4"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="4"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L32" s="6"/>
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="4"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L33" s="6"/>
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="4"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L34" s="6"/>
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="4"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L35" s="6"/>
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="4"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="27">
+        <v>42762</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B17:H17"/>
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="B33:H33"/>
@@ -3524,10 +3691,28 @@
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="B27:H27"/>
     <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J12 J15:J18 J19:J36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J12 J15:J36">
       <formula1>$M$2:$M$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/docment/テスト項目関連/win7_Internet Explorer11 おまけ.xlsx
+++ b/docment/テスト項目関連/win7_Internet Explorer11 おまけ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="456" windowWidth="22056" windowHeight="8604" tabRatio="603"/>
+    <workbookView xWindow="480" yWindow="456" windowWidth="22056" windowHeight="8604" tabRatio="603" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="25" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="66">
   <si>
     <t>確認項目</t>
     <rPh sb="0" eb="2">
@@ -138,19 +138,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タブレットで表示に問題が無いか？</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲームオーバー時にやり直しをしたとき、問題が初期化されるか？</t>
     <rPh sb="7" eb="8">
       <t>ジ</t>
@@ -163,22 +150,6 @@
     </rPh>
     <rPh sb="22" eb="25">
       <t>ショキカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>複数のPCで動かした挙動が安定するか？</t>
-    <rPh sb="0" eb="2">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キョドウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>アンテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1104,7 +1075,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1152,9 +1123,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1209,6 +1177,9 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1236,47 +1207,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1582,7 +1550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1594,17 +1562,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>43</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
@@ -1614,14 +1582,14 @@
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="55">
+      <c r="A3" s="32">
         <v>42762</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -1873,46 +1841,46 @@
   <sheetData>
     <row r="1" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
       <c r="G2" s="39"/>
-      <c r="H2" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="21" t="s">
+      <c r="H2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="28" t="s">
+      <c r="J2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="29"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="41"/>
@@ -1929,126 +1897,126 @@
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
-      <c r="H5" s="27">
+      <c r="H5" s="26">
         <v>42758</v>
       </c>
-      <c r="I5" s="27" t="s">
-        <v>62</v>
+      <c r="I5" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
       <c r="G6" s="36"/>
-      <c r="H6" s="27">
+      <c r="H6" s="26">
         <v>42758</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
-      <c r="H7" s="27">
+      <c r="H7" s="26">
         <v>42758</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
-      <c r="H8" s="27">
+      <c r="H8" s="26">
         <v>42758</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
-      <c r="H9" s="27">
+      <c r="H9" s="26">
         <v>42758</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <v>42758</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -2071,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2091,46 +2059,46 @@
   <sheetData>
     <row r="1" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
       <c r="G2" s="39"/>
-      <c r="H2" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="21" t="s">
+      <c r="H2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="21" t="s">
+      <c r="J2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>16</v>
+      <c r="A4" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -2144,300 +2112,300 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="27">
+        <v>49</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="26">
         <v>42758</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="27">
+        <v>50</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="26">
         <v>42758</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
       <c r="G7" s="36"/>
-      <c r="H7" s="27">
+      <c r="H7" s="26">
         <v>42758</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
-      <c r="H8" s="27">
+      <c r="H8" s="26">
         <v>42758</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
-      <c r="H9" s="27">
+      <c r="H9" s="26">
         <v>42758</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <v>42758</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
-      <c r="H11" s="27">
+      <c r="H11" s="26">
         <v>42758</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="27">
+      <c r="H12" s="26">
         <v>42758</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="27">
+      <c r="B13" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="26">
         <v>42758</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="27">
+      <c r="B14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="26">
         <v>42758</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="25" t="s">
-        <v>17</v>
+      <c r="B16" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="23"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="3"/>
       <c r="K17" s="4"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="26"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="25"/>
       <c r="J18" s="2"/>
       <c r="K18" s="4"/>
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="27">
+      <c r="B19" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="26">
         <v>42758</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
@@ -2445,468 +2413,434 @@
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="7"/>
+      <c r="I20" s="29">
+        <v>42758</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="4"/>
+      <c r="B21" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="29">
+        <v>42758</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="30">
+      <c r="B22" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="26">
         <v>42758</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="30">
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="26">
         <v>42758</v>
       </c>
-      <c r="J23" s="27" t="s">
+      <c r="J23" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="27">
+      <c r="B24" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="26">
         <v>42758</v>
       </c>
-      <c r="J24" s="27" t="s">
+      <c r="J24" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="27">
+      <c r="B25" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="26">
         <v>42758</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="27">
+      <c r="B26" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="26">
         <v>42758</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="27">
+      <c r="B27" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="26">
         <v>42758</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="27">
+      <c r="B28" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="26">
         <v>42758</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="J28" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L28" s="6"/>
+      <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="27">
+      <c r="B29" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="26">
         <v>42758</v>
       </c>
-      <c r="J29" s="27" t="s">
+      <c r="J29" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L29" s="6"/>
+      <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="27">
+      <c r="B30" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="29">
         <v>42758</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L30" s="2"/>
+      <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="27">
+      <c r="B31" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="29">
         <v>42758</v>
       </c>
-      <c r="J31" s="27" t="s">
+      <c r="J31" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L31" s="2"/>
+      <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="30">
+      <c r="B32" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="26">
         <v>42758</v>
       </c>
-      <c r="J32" s="27" t="s">
+      <c r="J32" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="L32" s="6"/>
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="30">
+      <c r="B33" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="26">
         <v>42758</v>
       </c>
-      <c r="J33" s="27" t="s">
+      <c r="J33" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="L33" s="6"/>
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="27">
+      <c r="B34" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="26">
         <v>42758</v>
       </c>
-      <c r="J34" s="27" t="s">
+      <c r="J34" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="L34" s="6"/>
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
-      <c r="B35" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="27">
+      <c r="B35" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="26">
         <v>42758</v>
       </c>
-      <c r="J35" s="27" t="s">
+      <c r="J35" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="L35" s="6"/>
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="27">
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="26">
         <v>42758</v>
       </c>
-      <c r="J36" s="27" t="s">
+      <c r="J36" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="L36" s="6"/>
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="B37" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="27">
+      <c r="B37" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="31">
         <v>42758</v>
       </c>
-      <c r="J37" s="27" t="s">
+      <c r="J37" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="L37" s="6"/>
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="27">
-        <v>42758</v>
-      </c>
-      <c r="J38" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L38" s="6"/>
+      <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="32">
-        <v>42758</v>
-      </c>
-      <c r="J39" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L39" s="6"/>
-    </row>
-    <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="I40" s="31"/>
-    </row>
-    <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="I41" s="31"/>
+      <c r="I39" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
+  <mergeCells count="35">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2921,10 +2855,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2938,11 +2872,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -2950,14 +2884,14 @@
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
       <c r="H2" s="39"/>
-      <c r="I2" s="25" t="s">
-        <v>17</v>
+      <c r="I2" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>4</v>
@@ -2967,7 +2901,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
@@ -2975,7 +2909,7 @@
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
-      <c r="I3" s="23"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -2984,8 +2918,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>14</v>
+      <c r="A4" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -2994,7 +2928,7 @@
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
-      <c r="I4" s="26"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="7"/>
@@ -3002,7 +2936,7 @@
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
@@ -3010,21 +2944,21 @@
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
-      <c r="I5" s="27">
+      <c r="I5" s="26">
         <v>42762</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
@@ -3032,21 +2966,21 @@
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
-      <c r="I6" s="27">
+      <c r="I6" s="26">
         <v>42762</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
@@ -3054,65 +2988,65 @@
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
       <c r="H7" s="53"/>
-      <c r="I7" s="27">
+      <c r="I7" s="26">
         <v>42762</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="27">
+      <c r="B8" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="26">
         <v>42762</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="27">
+      <c r="B9" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="26">
         <v>42762</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -3120,21 +3054,21 @@
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
-      <c r="I10" s="27">
+      <c r="I10" s="26">
         <v>42762</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -3142,14 +3076,14 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
-      <c r="I11" s="27">
+      <c r="I11" s="26">
         <v>42762</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L11" s="6"/>
     </row>
@@ -3168,87 +3102,87 @@
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="25" t="s">
-        <v>17</v>
+      <c r="B13" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="23"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="26"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="2"/>
       <c r="K15" s="4"/>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="27">
+      <c r="B16" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="26">
         <v>42762</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
@@ -3256,447 +3190,393 @@
       <c r="F17" s="44"/>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="7"/>
+      <c r="I17" s="26">
+        <v>42762</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="4"/>
+      <c r="B18" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="26">
+        <v>42762</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="27">
+      <c r="B19" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="26">
         <v>42762</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="27">
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="26">
         <v>42762</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="27">
+      <c r="B21" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="26">
         <v>42762</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="27">
+      <c r="B22" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="26">
         <v>42762</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="B23" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="27">
+      <c r="B23" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="26">
         <v>42762</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="27">
+      <c r="B24" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="26">
         <v>42762</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="27">
+      <c r="B25" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="26">
         <v>42762</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L25" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="27">
+      <c r="B26" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="26">
         <v>42762</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L26" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="27">
+      <c r="B27" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="26">
         <v>42762</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L27" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="27">
+      <c r="B28" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="26">
         <v>42762</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L28" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="27">
+      <c r="B29" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="26">
         <v>42762</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="27">
+      <c r="B30" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="26">
         <v>42762</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="27">
+      <c r="B31" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="26">
         <v>42762</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="27">
+      <c r="B32" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="26">
         <v>42762</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L32" s="6"/>
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="27">
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="26">
         <v>42762</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L33" s="6"/>
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="27">
+      <c r="B34" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="26">
         <v>42762</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="27">
-        <v>42762</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L35" s="6"/>
-    </row>
-    <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="27">
-        <v>42762</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L36" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B17:H17"/>
+  <mergeCells count="32">
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
@@ -3709,10 +3589,30 @@
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J12 J15:J36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J12 J15:J34">
       <formula1>$M$2:$M$3</formula1>
     </dataValidation>
   </dataValidations>
